--- a/ProyectoGrado.xlsx
+++ b/ProyectoGrado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rbeast92\Documents\elPolitecnico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TDG\TDG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18468FCE-52E9-4B01-97F3-C300CC46596C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07C7200-9C7B-4346-9581-6837F3EF891A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="8" xr2:uid="{1DBF8A41-DCE8-4652-9927-90600A44A8B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{1DBF8A41-DCE8-4652-9927-90600A44A8B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Area Model" sheetId="1" r:id="rId1"/>
@@ -286,7 +286,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +298,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -323,13 +331,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,7 +656,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,32 +670,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -703,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD65B54B-335E-44C7-B0A1-8F2F06381AEB}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,40 +729,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -770,7 +779,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,20 +788,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -809,7 +818,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,36 +833,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -869,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE68E5C7-45F2-4DC2-B4AB-3FA435D75D2E}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,112 +901,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1013,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811EF4B0-02B8-4AC1-B020-0DA187501AEE}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,78 +1050,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1128,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A101C4-E0B4-475B-9A91-E63FC56B7D05}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,36 +1151,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1187,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B06194-B3E5-4DD2-9375-78131B69AB0A}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,36 +1211,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1240,6 +1249,7 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1247,7 +1257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B869F8-BFDD-43F3-955D-0A2698492182}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
@@ -1262,44 +1272,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>78</v>
       </c>
     </row>

--- a/ProyectoGrado.xlsx
+++ b/ProyectoGrado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TDG\TDG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07C7200-9C7B-4346-9581-6837F3EF891A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9A5F37-EF52-4448-B58F-7DCCE9C99578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{1DBF8A41-DCE8-4652-9927-90600A44A8B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{1DBF8A41-DCE8-4652-9927-90600A44A8B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Area Model" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="191">
   <si>
     <t>Area</t>
   </si>
@@ -280,13 +280,349 @@
   </si>
   <si>
     <t>Remember_Token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administracion </t>
+  </si>
+  <si>
+    <t>Clara Isabel Muñoz Gallego</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 138</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Rita Sofia Bertel</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 262</t>
+  </si>
+  <si>
+    <t>Camila Gómez Cuervo</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 179</t>
+  </si>
+  <si>
+    <t>cgomez@elpoli.edu.co</t>
+  </si>
+  <si>
+    <t>Asuntos Académicos</t>
+  </si>
+  <si>
+    <t>Programas Tecnológicos</t>
+  </si>
+  <si>
+    <t>William Mario Martínez</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 448</t>
+  </si>
+  <si>
+    <t>Programas Profesionales</t>
+  </si>
+  <si>
+    <t>Hernán Dario Osorio Cardona</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 253</t>
+  </si>
+  <si>
+    <t>Blanca Ligia Ruiz Arango</t>
+  </si>
+  <si>
+    <t>faprofesional@elpoli.edu.co</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext.137</t>
+  </si>
+  <si>
+    <t>Ciencias Agrarias</t>
+  </si>
+  <si>
+    <t>Paula Andrea Jaramillo Varela</t>
+  </si>
+  <si>
+    <t>pajaramillo@elpoli.edu.co</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 109</t>
+  </si>
+  <si>
+    <t>Programas</t>
+  </si>
+  <si>
+    <t>Juan Carlos Gómez Mesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">319 79 00 Ext. 242 </t>
+  </si>
+  <si>
+    <t>Luz Marleny Ordoñez Arango</t>
+  </si>
+  <si>
+    <t>lmordonez@elpoli.edu.co</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 242</t>
+  </si>
+  <si>
+    <t>Ciencias Básicas, Sociales y Humanas</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 204</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 349</t>
+  </si>
+  <si>
+    <t>jruiz@elpoli.edu.co</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 298</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ciencias Básicas</t>
+  </si>
+  <si>
+    <t>Doris Matilde Marin Toro</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 192</t>
+  </si>
+  <si>
+    <t>Paula Andrea Ramirez Rodriguez</t>
+  </si>
+  <si>
+    <t>paramirez@elpoli.edu.co</t>
+  </si>
+  <si>
+    <t>Aula Taller de Ciencias</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 196</t>
+  </si>
+  <si>
+    <t>Ciencias Sociales</t>
+  </si>
+  <si>
+    <t>Marina Isabel Marin Tejada</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 104</t>
+  </si>
+  <si>
+    <t>Isabel Macea Bustamante</t>
+  </si>
+  <si>
+    <t>imacea@elpoli.edu.co</t>
+  </si>
+  <si>
+    <t>Polidiomas</t>
+  </si>
+  <si>
+    <t>Edwin Arlex Agudelo Rendón</t>
+  </si>
+  <si>
+    <t>Comunicación Audiovisual</t>
+  </si>
+  <si>
+    <t>José Santiago Correa Cortés</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 237</t>
+  </si>
+  <si>
+    <t>Ruth Albany Lujan Montaño</t>
+  </si>
+  <si>
+    <t>fcacamicos@elpoli.edu.co</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 112</t>
+  </si>
+  <si>
+    <t>Elkin Rodrigo Goéz Giraldo</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 256</t>
+  </si>
+  <si>
+    <t>Laboratorio</t>
+  </si>
+  <si>
+    <t>Emmanuel Adalberto Ortiz</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 531</t>
+  </si>
+  <si>
+    <t>Raúl Rosero Molinero</t>
+  </si>
+  <si>
+    <t>rbrosero@elpoli.edu.co</t>
+  </si>
+  <si>
+    <t>Educación Física, Recreación y Deporte</t>
+  </si>
+  <si>
+    <t>Juan Fernando Ruíz Ramírez</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 451</t>
+  </si>
+  <si>
+    <t>Sandra Milena David Borja</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 180</t>
+  </si>
+  <si>
+    <t>smdavid@elpoli.edu.co</t>
+  </si>
+  <si>
+    <t>Académica de Licenciatura en Educación Física, Recreación y Deporte</t>
+  </si>
+  <si>
+    <t>William Darío Bonolly Zapata</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 269</t>
+  </si>
+  <si>
+    <t>Olga Rocío Valencia Correa</t>
+  </si>
+  <si>
+    <t>orvalencia@elpoli.edu.co</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 132</t>
+  </si>
+  <si>
+    <t>Académica de Profesional en Deporte y la Técnica Profesional en Masoterapia</t>
+  </si>
+  <si>
+    <t>Andrés Leonardo Colorado Arango</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 215</t>
+  </si>
+  <si>
+    <t>Luz Mery León Vasco</t>
+  </si>
+  <si>
+    <t>lmleon@elpoli.edu.co</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 107</t>
+  </si>
+  <si>
+    <t>Programa Salud Sicofísica</t>
+  </si>
+  <si>
+    <t>Luis Fernando Pérez Valderrama</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 209</t>
+  </si>
+  <si>
+    <t>Jefe Oficina de Deportes</t>
+  </si>
+  <si>
+    <t>Luis Eduardo Ochoa Ruiz</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 412</t>
+  </si>
+  <si>
+    <t>Oficina ALACA</t>
+  </si>
+  <si>
+    <t>Conrado Patiño Sucerquia</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 195</t>
+  </si>
+  <si>
+    <t>Juan Guillermo Sierra Picón</t>
+  </si>
+  <si>
+    <t>jgsierra@elpoli.edu.co</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 191</t>
+  </si>
+  <si>
+    <t>Ingeniería</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 279</t>
+  </si>
+  <si>
+    <t>María Antonia Vega Ortega</t>
+  </si>
+  <si>
+    <t>maria_vega92152@elpoli.edu.co</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 106</t>
+  </si>
+  <si>
+    <t>Programas Área Seguridad e Higiene Ocupacional y Posgrados</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 454</t>
+  </si>
+  <si>
+    <t>León Dario Rojas Gómez</t>
+  </si>
+  <si>
+    <t>ldrojas@elpoli.edu.co</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 182</t>
+  </si>
+  <si>
+    <t>Programas Área de Civil e Instrumentación y Control</t>
+  </si>
+  <si>
+    <t>Juan David Mejía Muñoz</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 184</t>
+  </si>
+  <si>
+    <t>Gloria Cecilia Roldán Palacio</t>
+  </si>
+  <si>
+    <t>gcroldan@elpoli.edu.co</t>
+  </si>
+  <si>
+    <t>Programas Área de Informática y Telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Luis Fernando Galván Gómez</t>
+  </si>
+  <si>
+    <t>319 79 00 Ext. 457</t>
+  </si>
+  <si>
+    <t> Luis Horacio Aldana Arboleda</t>
+  </si>
+  <si>
+    <t> Hernando Delgado Rosas</t>
+  </si>
+  <si>
+    <t> Juan Carlos Ruiz Zapata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,16 +646,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -327,20 +684,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -670,32 +1057,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -710,47 +1097,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD65B54B-335E-44C7-B0A1-8F2F06381AEB}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -764,12 +1151,451 @@
       </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>5</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>6</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>6</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:cgomez@elpoli.edu.co" xr:uid="{0C8E9BF8-D887-4D97-93A7-70963CBDD573}"/>
+    <hyperlink ref="F5" r:id="rId2" display="mailto:faprofesional@elpoli.edu.co" xr:uid="{4B824D9A-97A9-43D7-9F3E-4EF1C54C0D63}"/>
+    <hyperlink ref="F6" r:id="rId3" display="mailto:lmordonez@elpoli.edu.co" xr:uid="{2C6278F4-4A02-475C-9D30-B058D1E84E43}"/>
+    <hyperlink ref="F7" r:id="rId4" display="mailto:paramirez@elpoli.edu.co" xr:uid="{A2223C02-E796-4718-84E4-A72DD309536D}"/>
+    <hyperlink ref="F9" r:id="rId5" display="mailto:imacea@elpoli.edu.co" xr:uid="{3F37C22C-B1D0-4118-91A1-AAE0A6B5CB2F}"/>
+    <hyperlink ref="F12" r:id="rId6" display="mailto:rbrosero@elpoli.edu.co" xr:uid="{E1072CA9-32F6-4221-BEA5-C43CA3861439}"/>
+    <hyperlink ref="F13" r:id="rId7" display="mailto:orvalencia@elpoli.edu.co" xr:uid="{6B92A82F-D628-4846-A434-5F5A641C7101}"/>
+    <hyperlink ref="F14" r:id="rId8" display="mailto:lmleon@elpoli.edu.co" xr:uid="{F85AF1E8-A4B3-4FB9-AE64-2D6F3605A738}"/>
+    <hyperlink ref="F17" r:id="rId9" display="mailto:jgsierra@elpoli.edu.co" xr:uid="{72F87E91-CA44-4A6E-88CC-4970FF9DE061}"/>
+    <hyperlink ref="F18" r:id="rId10" display="mailto:ldrojas@elpoli.edu.co" xr:uid="{1A3C4F37-8985-465E-8990-8AAC37BD1087}"/>
+    <hyperlink ref="F19" r:id="rId11" display="mailto:gcroldan@elpoli.edu.co" xr:uid="{FBEED26E-4A43-4CD6-8680-088C01A4C2DC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -788,20 +1614,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -833,36 +1659,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -901,79 +1727,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -985,28 +1811,28 @@
       <c r="R2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="3" t="s">
         <v>44</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1022,7 +1848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811EF4B0-02B8-4AC1-B020-0DA187501AEE}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1050,51 +1876,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -1121,7 +1947,7 @@
       <c r="P2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1151,24 +1977,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1177,10 +2003,10 @@
       <c r="E2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1194,16 +2020,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B06194-B3E5-4DD2-9375-78131B69AB0A}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="22.140625" customWidth="1"/>
@@ -1211,24 +2038,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1240,16 +2067,149 @@
       <c r="F2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" display="mailto:pajaramillo@elpoli.edu.co" xr:uid="{7A8CE92B-87E4-4A48-A9B9-AEFDA22248CB}"/>
+    <hyperlink ref="E5" r:id="rId2" display="mailto:jruiz@elpoli.edu.co" xr:uid="{519DB811-EAA9-477B-9040-FD9DBB089F1D}"/>
+    <hyperlink ref="E6" r:id="rId3" display="mailto:fcacamicos@elpoli.edu.co" xr:uid="{9A5955C8-2C79-46DB-8EEA-3EFB9FE34A6A}"/>
+    <hyperlink ref="E7" r:id="rId4" display="mailto:smdavid@elpoli.edu.co" xr:uid="{D042ED1D-8A02-4067-B507-A773D6AA84BF}"/>
+    <hyperlink ref="E8" r:id="rId5" display="mailto:maria_vega92152@elpoli.edu.co" xr:uid="{3F83E482-626C-47FA-BC46-B137423C9466}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1272,17 +2232,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
